--- a/ECFP4 Fingerprint/top_similarities_morgan_t.xlsx
+++ b/ECFP4 Fingerprint/top_similarities_morgan_t.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>442187</t>
+          <t>660</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0.1914893617021276</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1914893617021276</v>
+        <v>0.1860465116279069</v>
       </c>
     </row>
     <row r="12">
@@ -743,7 +743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7976</t>
+          <t>26808</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>79730</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>79730</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>44453629</t>
+          <t>13879</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2241379310344827</v>
+        <v>0.2142857142857142</v>
       </c>
     </row>
     <row r="41">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>155173</t>
+          <t>6985</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2241379310344827</v>
+        <v>0.2142857142857142</v>
       </c>
     </row>
     <row r="42">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8969</t>
+          <t>92766</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>92766</t>
+          <t>643606</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>643606</t>
+          <t>8969</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3529411764705882</v>
       </c>
     </row>
     <row r="56">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>75316</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
   </sheetData>
